--- a/좌표.xlsx
+++ b/좌표.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>충주여자고등학교</t>
+          <t>바다마을시장초밥</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>127.9388334</t>
+          <t>127.9408482</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>36.9610279</t>
+          <t>36.9868651</t>
         </is>
       </c>
     </row>
